--- a/TestData/VuoroNetDatesData.xlsx
+++ b/TestData/VuoroNetDatesData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>${username}</t>
   </si>
@@ -70,6 +70,120 @@
   </si>
   <si>
     <t>01.04.2021</t>
+  </si>
+  <si>
+    <t>01.05.2021</t>
+  </si>
+  <si>
+    <t>01.06.2021</t>
+  </si>
+  <si>
+    <t>01.07.2021</t>
+  </si>
+  <si>
+    <t>01.08.2021</t>
+  </si>
+  <si>
+    <t>01.09.2021</t>
+  </si>
+  <si>
+    <t>01.10.2021</t>
+  </si>
+  <si>
+    <t>01.11.2021</t>
+  </si>
+  <si>
+    <t>01.12.2021</t>
+  </si>
+  <si>
+    <t>01.01.2022</t>
+  </si>
+  <si>
+    <t>01.02.2022</t>
+  </si>
+  <si>
+    <t>01.03.2022</t>
+  </si>
+  <si>
+    <t>01.04.2022</t>
+  </si>
+  <si>
+    <t>01.05.2022</t>
+  </si>
+  <si>
+    <t>01.06.2022</t>
+  </si>
+  <si>
+    <t>01.07.2022</t>
+  </si>
+  <si>
+    <t>01.08.2022</t>
+  </si>
+  <si>
+    <t>01.09.2022</t>
+  </si>
+  <si>
+    <t>01.10.2022</t>
+  </si>
+  <si>
+    <t>01.11.2022</t>
+  </si>
+  <si>
+    <t>01.12.2022</t>
+  </si>
+  <si>
+    <t>01.01.2023</t>
+  </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
+  <si>
+    <t>01.03.2023</t>
+  </si>
+  <si>
+    <t>01.04.2023</t>
+  </si>
+  <si>
+    <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>01.12.2019</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
+  </si>
+  <si>
+    <t>01.02.2020</t>
+  </si>
+  <si>
+    <t>01.03.2020</t>
+  </si>
+  <si>
+    <t>01.04.2020</t>
+  </si>
+  <si>
+    <t>01.05.2020</t>
+  </si>
+  <si>
+    <t>01.06.2020</t>
+  </si>
+  <si>
+    <t>01.07.2020</t>
+  </si>
+  <si>
+    <t>01.08.2020</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>01.10.2020</t>
+  </si>
+  <si>
+    <t>01.11.2020</t>
+  </si>
+  <si>
+    <t>01.12.2020</t>
   </si>
 </sst>
 </file>
@@ -515,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,6 +641,8 @@
     <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -539,473 +655,905 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4">
-        <v>44197</v>
+        <v>43800</v>
       </c>
       <c r="B2" s="4">
-        <v>44228</v>
+        <v>43831</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f t="shared" ref="C2:C29" si="0">TEXT(A2,"gg.aa.yyyy")</f>
-        <v>01.01.2021</v>
+        <f t="shared" ref="C2:C42" si="0">TEXT(A2,"gg.aa.yyyy")</f>
+        <v>01.12.2019</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f t="shared" ref="E2:E29" si="1">TEXT(B2,"gg.aa.yyyy")</f>
-        <v>01.02.2021</v>
+        <f t="shared" ref="E2:E42" si="1">TEXT(B2,"gg.aa.yyyy")</f>
+        <v>01.01.2020</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
-        <v>44228</v>
+        <v>43831</v>
       </c>
       <c r="B3" s="4">
-        <v>44256</v>
+        <v>43862</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.02.2021</v>
+        <v>01.01.2020</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.03.2021</v>
+        <v>01.02.2020</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
-        <v>44256</v>
+        <v>43862</v>
       </c>
       <c r="B4" s="4">
-        <v>44287</v>
+        <v>43891</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.03.2021</v>
+        <v>01.02.2020</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.04.2021</v>
+        <v>01.03.2020</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
-        <v>44287</v>
+        <v>43891</v>
       </c>
       <c r="B5" s="4">
-        <v>44317</v>
+        <v>43922</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.04.2021</v>
+        <v>01.03.2020</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.05.2021</v>
+        <v>01.04.2020</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
-        <v>44317</v>
+        <v>43922</v>
       </c>
       <c r="B6" s="4">
-        <v>44348</v>
+        <v>43952</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.05.2021</v>
+        <v>01.04.2020</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.06.2021</v>
+        <v>01.05.2020</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
-        <v>44348</v>
+        <v>43952</v>
       </c>
       <c r="B7" s="4">
-        <v>44378</v>
+        <v>43983</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.06.2021</v>
+        <v>01.05.2020</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.07.2021</v>
+        <v>01.06.2020</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>44378</v>
+        <v>43983</v>
       </c>
       <c r="B8" s="4">
-        <v>44409</v>
+        <v>44013</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.07.2021</v>
+        <v>01.06.2020</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.08.2021</v>
+        <v>01.07.2020</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
-        <v>44409</v>
+        <v>44013</v>
       </c>
       <c r="B9" s="4">
-        <v>44440</v>
+        <v>44044</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.08.2021</v>
+        <v>01.07.2020</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.09.2021</v>
+        <v>01.08.2020</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
-        <v>44440</v>
+        <v>44044</v>
       </c>
       <c r="B10" s="4">
-        <v>44470</v>
+        <v>44075</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.09.2021</v>
+        <v>01.08.2020</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.10.2021</v>
+        <v>01.09.2020</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>44470</v>
+        <v>44075</v>
       </c>
       <c r="B11" s="4">
-        <v>44501</v>
+        <v>44105</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.10.2021</v>
+        <v>01.09.2020</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.11.2021</v>
+        <v>01.10.2020</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>44501</v>
+        <v>44105</v>
       </c>
       <c r="B12" s="4">
-        <v>44531</v>
+        <v>44136</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.11.2021</v>
+        <v>01.10.2020</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.12.2021</v>
+        <v>01.11.2020</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44531</v>
+        <v>44136</v>
       </c>
       <c r="B13" s="4">
-        <v>44562</v>
+        <v>44166</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.12.2021</v>
+        <v>01.11.2020</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.01.2022</v>
+        <v>01.12.2020</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44562</v>
+        <v>44166</v>
       </c>
       <c r="B14" s="4">
-        <v>44593</v>
+        <v>44197</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.01.2022</v>
+        <v>01.12.2020</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.02.2022</v>
+        <v>01.01.2021</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44593</v>
+        <v>44197</v>
       </c>
       <c r="B15" s="4">
-        <v>44621</v>
+        <v>44228</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>01.02.2022</v>
+        <v>01.01.2021</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>01.03.2022</v>
+        <v>01.02.2021</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.02.2021</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.03.2021</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.03.2021</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.04.2021</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.04.2021</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.05.2021</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
+        <v>44317</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.05.2021</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.06.2021</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>44348</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.06.2021</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.07.2021</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.07.2021</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.08.2021</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>44409</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.08.2021</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.09.2021</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>44440</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.09.2021</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.10.2021</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>44470</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.10.2021</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.11.2021</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.11.2021</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.12.2021</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>44531</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.12.2021</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.01.2022</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.01.2022</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.02.2022</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B28" s="4">
         <v>44621</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>01.02.2022</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>01.03.2022</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B29" s="4">
         <v>44652</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.03.2022</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.04.2022</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4">
         <v>44652</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B30" s="4">
         <v>44682</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.04.2022</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.05.2022</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4">
         <v>44682</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B31" s="4">
         <v>44713</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.05.2022</v>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.06.2022</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4">
         <v>44713</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B32" s="4">
         <v>44743</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.06.2022</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.07.2022</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4">
         <v>44743</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B33" s="4">
         <v>44774</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.07.2022</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.08.2022</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4">
         <v>44774</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B34" s="4">
         <v>44805</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.08.2022</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.09.2022</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4">
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4">
         <v>44805</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B35" s="4">
         <v>44835</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.09.2022</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.10.2022</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4">
         <v>44835</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B36" s="4">
         <v>44866</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.10.2022</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.11.2022</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4">
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4">
         <v>44866</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B37" s="4">
         <v>44896</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.11.2022</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.12.2022</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4">
         <v>44896</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B38" s="4">
         <v>44927</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.12.2022</v>
       </c>
-      <c r="E25" s="5" t="str">
+      <c r="E38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.01.2023</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4">
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4">
         <v>44927</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B39" s="4">
         <v>44958</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.01.2023</v>
       </c>
-      <c r="E26" s="5" t="str">
+      <c r="E39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.02.2023</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4">
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4">
         <v>44958</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B40" s="4">
         <v>44986</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.02.2023</v>
       </c>
-      <c r="E27" s="5" t="str">
+      <c r="E40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.03.2023</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4">
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4">
         <v>44986</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B41" s="4">
         <v>45017</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.03.2023</v>
       </c>
-      <c r="E28" s="5" t="str">
+      <c r="E41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.04.2023</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4">
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4">
         <v>45017</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B42" s="4">
         <v>45047</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>01.04.2023</v>
       </c>
-      <c r="E29" s="5" t="str">
+      <c r="E42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01.05.2023</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
